--- a/Documents/Rubrica para el proyecto de desarrollo colaborativo de un videojuego.xlsx
+++ b/Documents/Rubrica para el proyecto de desarrollo colaborativo de un videojuego.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javi\Documents\Master_profe\Practicas\Proyecto_intermodular\EjemploProyectoIntermodularDAM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760338EB-0CCA-47A6-8553-06B477E73BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECEBB4D-6EB8-47EC-A328-26FA674549D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA01E2A3-A73B-4543-8BD2-CDAF2F4BD470}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{FA01E2A3-A73B-4543-8BD2-CDAF2F4BD470}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubrica formato" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>Uso incorrecto o inexistente del control de versiones.</t>
   </si>
@@ -150,13 +150,25 @@
   </si>
   <si>
     <t>Presentación</t>
+  </si>
+  <si>
+    <t>Videojuego o documentación se exponen pero de forma incompleta o excede el tiempo máximo.</t>
+  </si>
+  <si>
+    <t>No se realiza presentación o el contenido es insuficiente.</t>
+  </si>
+  <si>
+    <t>En la presentación se muestra solamente el videojuego o documentación o ambas partes de manera muy superficial.</t>
+  </si>
+  <si>
+    <t>La presentación ha mostrado el producto del proyecto completo dentro del tiempo esperado y en profundidad.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +199,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -238,11 +265,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -272,6 +308,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -608,13 +665,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A31CEC2-47AF-45E3-868A-D52B0B58C711}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.796875" style="2" customWidth="1"/>
@@ -626,177 +683,193 @@
     <col min="8" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="57.75" customHeight="1">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="2:7" ht="15.6">
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="57" customHeight="1">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9">
-        <v>200</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="66" customHeight="1">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="9">
-        <v>150</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="66" customHeight="1">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9">
-        <v>200</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="54.75" customHeight="1">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="57.75" customHeight="1">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10">
-        <v>150</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="63" customHeight="1">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10">
-        <v>50</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="41.4">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="10">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <f>SUM(C3:C9)</f>
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A1:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -811,7 +884,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.796875" style="2" customWidth="1"/>
@@ -823,13 +896,13 @@
     <col min="8" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="57.75" customHeight="1">
+    <row r="1" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="2:7" ht="15.6">
+    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
@@ -849,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="57" customHeight="1">
+    <row r="3" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
@@ -869,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="66" customHeight="1">
+    <row r="4" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
@@ -889,7 +962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="66" customHeight="1">
+    <row r="5" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
@@ -909,7 +982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="54.75" customHeight="1">
+    <row r="6" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
@@ -929,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="57.75" customHeight="1">
+    <row r="7" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
@@ -949,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="63" customHeight="1">
+    <row r="8" spans="2:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
@@ -967,7 +1040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="41.4">
+    <row r="9" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
@@ -985,7 +1058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <f>SUM(C3:C9)</f>
         <v>1000</v>

--- a/Documents/Rubrica para el proyecto de desarrollo colaborativo de un videojuego.xlsx
+++ b/Documents/Rubrica para el proyecto de desarrollo colaborativo de un videojuego.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javi\Documents\Master_profe\Practicas\Proyecto_intermodular\EjemploProyectoIntermodularDAM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECEBB4D-6EB8-47EC-A328-26FA674549D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D07963-8284-404E-84D2-061BFA136D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{FA01E2A3-A73B-4543-8BD2-CDAF2F4BD470}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA01E2A3-A73B-4543-8BD2-CDAF2F4BD470}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubrica formato" sheetId="2" r:id="rId1"/>
-    <sheet name="Rubrica" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Uso incorrecto o inexistente del control de versiones.</t>
   </si>
@@ -68,15 +67,6 @@
 web usando metodologías ágiles</t>
   </si>
   <si>
-    <t>Básico 50%</t>
-  </si>
-  <si>
-    <t>Adecuado 75%</t>
-  </si>
-  <si>
-    <t>Excelente 100%</t>
-  </si>
-  <si>
     <t>Repositorio correctamente configurado, GitHub Pages operativo, proyecto accesible desde los URL indicados.</t>
   </si>
   <si>
@@ -86,9 +76,6 @@
     <t>Repositorio ni GitHub Pages accesible desde los URL entregados.</t>
   </si>
   <si>
-    <t>Insuficiente 0%</t>
-  </si>
-  <si>
     <t>Referencias poco claras o incompletas uno o varios ODS.</t>
   </si>
   <si>
@@ -128,9 +115,6 @@
     <t>Diseño general del videojuego</t>
   </si>
   <si>
-    <t>Puntos</t>
-  </si>
-  <si>
     <t>Apartados</t>
   </si>
   <si>
@@ -162,13 +146,37 @@
   </si>
   <si>
     <t>La presentación ha mostrado el producto del proyecto completo dentro del tiempo esperado y en profundidad.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Adecuado</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>Básico</t>
+  </si>
+  <si>
+    <t>Insuficiente</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>/120</t>
+  </si>
+  <si>
+    <t>/10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +222,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +244,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -269,6 +291,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -286,36 +343,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -329,6 +359,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -665,409 +722,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A31CEC2-47AF-45E3-868A-D52B0B58C711}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.19921875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.3984375" style="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="1"/>
+    <col min="12" max="12" width="15.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="6">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="6">
+        <v>24</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6">
+        <v>24</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="6">
+        <v>6</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>11</v>
+      <c r="K8" s="11">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="12">
-        <v>2</v>
-      </c>
-      <c r="D3" s="15" t="s">
+    <row r="9" spans="1:12" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="H9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="6">
         <v>6</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>7</v>
+      <c r="J9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="11">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="12">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>24</v>
+    <row r="10" spans="1:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="14">
+        <f>SUM(K3:K9)</f>
+        <v>60</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <f>SUM(C3:C9)</f>
-        <v>11</v>
+    <row r="11" spans="1:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="16"/>
+      <c r="K11" s="14">
+        <f>K10*10/120</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="7">
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A1:A9"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1E00F3-7182-477D-82AD-17B1443A866E}">
-  <dimension ref="B1:G10"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.19921875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.3984375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="9">
-        <v>200</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="9">
-        <v>150</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9">
-        <v>200</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="10">
-        <v>150</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="10">
-        <v>50</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="10">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <f>SUM(C3:C9)</f>
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>